--- a/tables/table10.xlsx
+++ b/tables/table10.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -388,6 +388,46 @@
           <t>Mexico-Born US 2020</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Puerto Rico 2010</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Puerto Rico 2020</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>PR-Born US 2010</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>PR-Born US 2020</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>DR-Born US 2010</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>DR-Born US 2020</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Cuban-Born US 2010</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Cuban-Born US 2020</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -414,11 +454,35 @@
         <v>0.5588051519044553</v>
       </c>
       <c r="E3">
-        <v>0.6129837702871411</v>
+        <v>0.4284603559918569</v>
       </c>
       <c r="F3">
         <v>0.434908475122974</v>
       </c>
+      <c r="G3">
+        <v>0.2111066509793065</v>
+      </c>
+      <c r="H3">
+        <v>0.2019493253082225</v>
+      </c>
+      <c r="I3">
+        <v>0.1807980049875312</v>
+      </c>
+      <c r="J3">
+        <v>0.1798769971689824</v>
+      </c>
+      <c r="K3">
+        <v>0.3160047796443382</v>
+      </c>
+      <c r="L3">
+        <v>0.3505808386479016</v>
+      </c>
+      <c r="M3">
+        <v>0.1055294721670657</v>
+      </c>
+      <c r="N3">
+        <v>0.1309123717153491</v>
+      </c>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
@@ -433,10 +497,34 @@
         <v>0.3190358240790141</v>
       </c>
       <c r="E4">
-        <v>0.06412880684254665</v>
+        <v>0.3163013565833961</v>
       </c>
       <c r="F4">
-        <v>0.2219874741284305</v>
+        <v>0.2853990269601914</v>
+      </c>
+      <c r="G4">
+        <v>0.2589660184095785</v>
+      </c>
+      <c r="H4">
+        <v>0.2536142122124065</v>
+      </c>
+      <c r="I4">
+        <v>0.2977806529700853</v>
+      </c>
+      <c r="J4">
+        <v>0.266356447886499</v>
+      </c>
+      <c r="K4">
+        <v>0.3244394461235678</v>
+      </c>
+      <c r="L4">
+        <v>0.2950804863507435</v>
+      </c>
+      <c r="M4">
+        <v>0.2633968613332838</v>
+      </c>
+      <c r="N4">
+        <v>0.2237585053193489</v>
       </c>
     </row>
     <row r="5">
@@ -452,10 +540,34 @@
         <v>0.08139225698187345</v>
       </c>
       <c r="E5">
-        <v>0.2702903097017054</v>
+        <v>0.2023341068846063</v>
       </c>
       <c r="F5">
-        <v>0.2901486439265651</v>
+        <v>0.2217133026906432</v>
+      </c>
+      <c r="G5">
+        <v>0.3904934597550003</v>
+      </c>
+      <c r="H5">
+        <v>0.3933443355014076</v>
+      </c>
+      <c r="I5">
+        <v>0.400145034902284</v>
+      </c>
+      <c r="J5">
+        <v>0.4276528586769061</v>
+      </c>
+      <c r="K5">
+        <v>0.2624727630561608</v>
+      </c>
+      <c r="L5">
+        <v>0.2771223645462593</v>
+      </c>
+      <c r="M5">
+        <v>0.4526694750125262</v>
+      </c>
+      <c r="N5">
+        <v>0.4484117138453442</v>
       </c>
     </row>
     <row r="6">
@@ -471,10 +583,34 @@
         <v>0.03994724506808005</v>
       </c>
       <c r="E6">
-        <v>0.05259711316860692</v>
+        <v>0.03308267106661048</v>
       </c>
       <c r="F6">
-        <v>0.05295540682203048</v>
+        <v>0.03384673279036637</v>
+      </c>
+      <c r="G6">
+        <v>0.1394338708561146</v>
+      </c>
+      <c r="H6">
+        <v>0.1510921269779633</v>
+      </c>
+      <c r="I6">
+        <v>0.08572188774924613</v>
+      </c>
+      <c r="J6">
+        <v>0.08966841300315642</v>
+      </c>
+      <c r="K6">
+        <v>0.06955788289871372</v>
+      </c>
+      <c r="L6">
+        <v>0.05436216147856408</v>
+      </c>
+      <c r="M6">
+        <v>0.1582942082505985</v>
+      </c>
+      <c r="N6">
+        <v>0.1703244238938386</v>
       </c>
     </row>
     <row r="7">
@@ -490,11 +626,35 @@
         <v>440990</v>
       </c>
       <c r="E7">
-        <v>22040</v>
+        <v>14239</v>
       </c>
       <c r="F7">
         <v>16897</v>
       </c>
+      <c r="G7">
+        <v>4400</v>
+      </c>
+      <c r="H7">
+        <v>13137</v>
+      </c>
+      <c r="I7">
+        <v>5312</v>
+      </c>
+      <c r="J7">
+        <v>6514</v>
+      </c>
+      <c r="K7">
+        <v>1704</v>
+      </c>
+      <c r="L7">
+        <v>1997</v>
+      </c>
+      <c r="M7">
+        <v>4848</v>
+      </c>
+      <c r="N7">
+        <v>6318</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -521,11 +681,35 @@
         <v>0.5176594066958725</v>
       </c>
       <c r="E9">
-        <v>0.6032382310984308</v>
+        <v>0.4205372064118612</v>
       </c>
       <c r="F9">
         <v>0.4357358946454067</v>
       </c>
+      <c r="G9">
+        <v>0.186765305057294</v>
+      </c>
+      <c r="H9">
+        <v>0.1879103069095684</v>
+      </c>
+      <c r="I9">
+        <v>0.1680805492464685</v>
+      </c>
+      <c r="J9">
+        <v>0.1707538771494167</v>
+      </c>
+      <c r="K9">
+        <v>0.2532580071574873</v>
+      </c>
+      <c r="L9">
+        <v>0.3276508595823238</v>
+      </c>
+      <c r="M9">
+        <v>0.1013584659419538</v>
+      </c>
+      <c r="N9">
+        <v>0.1273494988419046</v>
+      </c>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
@@ -540,10 +724,34 @@
         <v>0.3124524075844897</v>
       </c>
       <c r="E10">
-        <v>0.06372563005230623</v>
+        <v>0.3169901958836399</v>
       </c>
       <c r="F10">
-        <v>0.2122600849998835</v>
+        <v>0.273823430547374</v>
+      </c>
+      <c r="G10">
+        <v>0.2746508988911599</v>
+      </c>
+      <c r="H10">
+        <v>0.2666430740193665</v>
+      </c>
+      <c r="I10">
+        <v>0.313707219536816</v>
+      </c>
+      <c r="J10">
+        <v>0.285545612144497</v>
+      </c>
+      <c r="K10">
+        <v>0.3197461117738414</v>
+      </c>
+      <c r="L10">
+        <v>0.2647109726548979</v>
+      </c>
+      <c r="M10">
+        <v>0.2495291343487224</v>
+      </c>
+      <c r="N10">
+        <v>0.2176296964355258</v>
       </c>
     </row>
     <row r="11">
@@ -559,10 +767,34 @@
         <v>0.07142683245170427</v>
       </c>
       <c r="E11">
-        <v>0.2694317641464574</v>
+        <v>0.1955635324842761</v>
       </c>
       <c r="F11">
-        <v>0.2803964442491954</v>
+        <v>0.2166665002612565</v>
+      </c>
+      <c r="G11">
+        <v>0.3993272206265132</v>
+      </c>
+      <c r="H11">
+        <v>0.3858115870671262</v>
+      </c>
+      <c r="I11">
+        <v>0.381521816499395</v>
+      </c>
+      <c r="J11">
+        <v>0.4087522841212576</v>
+      </c>
+      <c r="K11">
+        <v>0.3142767111571271</v>
+      </c>
+      <c r="L11">
+        <v>0.2928348909657321</v>
+      </c>
+      <c r="M11">
+        <v>0.4338341069866081</v>
+      </c>
+      <c r="N11">
+        <v>0.4325025109147929</v>
       </c>
     </row>
     <row r="12">
@@ -578,10 +810,34 @@
         <v>0.09753182182752171</v>
       </c>
       <c r="E12">
-        <v>0.06360437470280551</v>
+        <v>0.04780417375870085</v>
       </c>
       <c r="F12">
-        <v>0.07160757610551434</v>
+        <v>0.05262071880480979</v>
+      </c>
+      <c r="G12">
+        <v>0.1392565754250329</v>
+      </c>
+      <c r="H12">
+        <v>0.1596350320039389</v>
+      </c>
+      <c r="I12">
+        <v>0.09307035764434868</v>
+      </c>
+      <c r="J12">
+        <v>0.08886285901700793</v>
+      </c>
+      <c r="K12">
+        <v>0.09840419545792163</v>
+      </c>
+      <c r="L12">
+        <v>0.07866043613707165</v>
+      </c>
+      <c r="M12">
+        <v>0.1915792908095923</v>
+      </c>
+      <c r="N12">
+        <v>0.2030048988460041</v>
       </c>
     </row>
     <row r="13">
@@ -597,10 +853,34 @@
         <v>404169</v>
       </c>
       <c r="E13">
-        <v>19138</v>
+        <v>12376</v>
       </c>
       <c r="F13">
         <v>13531</v>
+      </c>
+      <c r="G13">
+        <v>3466</v>
+      </c>
+      <c r="H13">
+        <v>9792</v>
+      </c>
+      <c r="I13">
+        <v>4167</v>
+      </c>
+      <c r="J13">
+        <v>4544</v>
+      </c>
+      <c r="K13">
+        <v>1046</v>
+      </c>
+      <c r="L13">
+        <v>1238</v>
+      </c>
+      <c r="M13">
+        <v>4018</v>
+      </c>
+      <c r="N13">
+        <v>4705</v>
       </c>
     </row>
   </sheetData>

--- a/tables/table10.xlsx
+++ b/tables/table10.xlsx
@@ -392,12 +392,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -424,7 +424,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -456,12 +456,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.25</t>
         </is>
       </c>
     </row>
@@ -554,7 +554,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -591,12 +591,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.24</t>
         </is>
       </c>
     </row>
